--- a/FORMATO DE SEGUIMIENTO -SPRINTS.xlsx
+++ b/FORMATO DE SEGUIMIENTO -SPRINTS.xlsx
@@ -1,19 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/42a64384ca0b5bd3/Documentos/Min TIC/Ciclo 3/Grupo001/Mintic84Grupo-001/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="52" documentId="11_962AC83BF2A046D6368FA9EE79B340014D514CE9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BEF8555-4DA5-4A03-B889-09356462B9D9}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="PLANEACION-G 01 Sprint 1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="PLANEACION-G 01 Sprint 2" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="PLANEACION-G 01 Sprint 3" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Reunion 001  " sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="RETROSPECTIVA-TUTOR" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Reunion 002  " sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="RETROSPECTIVA-TUTOR 2" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="Reunion 004  " sheetId="8" r:id="rId11"/>
+    <sheet name="PLANEACION-G 01 Sprint 1" sheetId="1" r:id="rId1"/>
+    <sheet name="PLANEACION-G 01 Sprint 2" sheetId="2" r:id="rId2"/>
+    <sheet name="PLANEACION-G 01 Sprint 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Reunion 001  " sheetId="4" r:id="rId4"/>
+    <sheet name="Reunion 002  " sheetId="6" r:id="rId5"/>
+    <sheet name="RETROSPECTIVA-TUTOR 2" sheetId="7" r:id="rId6"/>
+    <sheet name="Reunion 004  " sheetId="8" r:id="rId7"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataSignature="AMtx7mh7Yx6RMc28BQy9Wt7or+M4c5g7gg=="/>
@@ -23,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
   <si>
     <t xml:space="preserve">Tema Sprint 1 : </t>
   </si>
@@ -97,9 +105,6 @@
     <t>Script SQL con el DDL de la Base de Datos</t>
   </si>
   <si>
-    <t>Andres ??</t>
-  </si>
-  <si>
     <t>Frontend - Historias de Usuario</t>
   </si>
   <si>
@@ -152,9 +157,6 @@
   </si>
   <si>
     <t>1. Primera reunión (plan inicial del sprint) - lunes.</t>
-  </si>
-  <si>
-    <t>· Pantallazo:</t>
   </si>
   <si>
     <t>Observaciones:</t>
@@ -185,91 +187,103 @@
     <t xml:space="preserve">1. Cuarta reunión (plan inicial del sprint) - </t>
   </si>
   <si>
-    <t xml:space="preserve"> Distribucion de tareas para completar el Sprint 2:</t>
+    <t xml:space="preserve">Andres </t>
+  </si>
+  <si>
+    <t>DISEÑO: Modelo Entidad Relación (M.E.R.): Tablas, Campos, Tipo Datos, Llaves Primarias, Llaves Foráneas, Relaciones	Andres
+DIAGRAMA DE CLASES: Clases, Atributos, Métodos, Asociación entre clases (Generalización, Agregación, Composición)	Jhon
+Script SQL con el DDL de la Base de Datos	Andres 
+Frontend - Historias de Usuario	Erika- Daniel
+Backend - Historias de Usuario	Erika - Daniel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="16">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Abadi"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Abadi"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="24.0"/>
+      <sz val="24"/>
       <color rgb="FFFF0062"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color rgb="FF404040"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
-      <sz val="26.0"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="26"/>
       <color rgb="FFFF0066"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFF0066"/>
       <name val="Symbol"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -280,7 +294,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -314,7 +328,13 @@
     </fill>
   </fills>
   <borders count="21">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -328,6 +348,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -336,9 +357,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -350,27 +373,39 @@
       <top style="thick">
         <color rgb="FF4472C4"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF4472C4"/>
       </left>
+      <right/>
       <top style="thick">
         <color rgb="FF4472C4"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thick">
         <color rgb="FF4472C4"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thick">
         <color rgb="FF4472C4"/>
       </right>
       <top style="thick">
         <color rgb="FF4472C4"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -379,216 +414,232 @@
       <right style="thick">
         <color rgb="FF4472C4"/>
       </right>
+      <top/>
       <bottom style="thick">
         <color rgb="FF4472C4"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF4472C4"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thick">
         <color rgb="FF4472C4"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thick">
         <color rgb="FF4472C4"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thick">
         <color rgb="FF4472C4"/>
       </right>
+      <top/>
       <bottom style="thick">
         <color rgb="FF4472C4"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="dotted">
         <color rgb="FF4472C4"/>
       </left>
+      <right/>
       <top style="dotted">
         <color rgb="FF4472C4"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="dotted">
         <color rgb="FF4472C4"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="dotted">
         <color rgb="FF4472C4"/>
       </right>
       <top style="dotted">
         <color rgb="FF4472C4"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="dotted">
         <color rgb="FF4472C4"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="dotted">
         <color rgb="FF4472C4"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="dotted">
         <color rgb="FF4472C4"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="dotted">
         <color rgb="FF4472C4"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="dotted">
         <color rgb="FF4472C4"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="dotted">
         <color rgb="FF4472C4"/>
       </right>
+      <top/>
       <bottom style="dotted">
         <color rgb="FF4472C4"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF4472C4"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thick">
         <color rgb="FF4472C4"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="43">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="2" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="2" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="19" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="20" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -599,11 +650,17 @@
     <xdr:ext cx="7096125" cy="3371850"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Imagen"/>
+        <xdr:cNvPr id="2" name="image1.png" title="Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -620,12 +677,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -636,11 +689,17 @@
     <xdr:ext cx="6705600" cy="4410075"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg" title="Imagen"/>
+        <xdr:cNvPr id="2" name="image2.jpg" title="Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -657,12 +716,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -673,11 +728,17 @@
     <xdr:ext cx="6667500" cy="4324350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.jpg" title="Imagen"/>
+        <xdr:cNvPr id="2" name="image3.jpg" title="Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -695,7 +756,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -885,30 +946,35 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <pageSetUpPr/>
+    <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
+  <dimension ref="B1:G1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.71"/>
-    <col customWidth="1" min="2" max="2" width="5.14"/>
-    <col customWidth="1" min="3" max="3" width="14.57"/>
-    <col customWidth="1" min="4" max="4" width="70.43"/>
-    <col customWidth="1" min="5" max="5" width="23.71"/>
-    <col customWidth="1" min="6" max="6" width="22.14"/>
-    <col customWidth="1" min="7" max="7" width="24.0"/>
-    <col customWidth="1" min="8" max="26" width="8.71"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="70.42578125" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
+    <col min="8" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="2:7">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -916,7 +982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="2:7">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
@@ -936,12 +1002,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="2:7">
       <c r="B3" s="7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>8</v>
@@ -949,19 +1015,19 @@
       <c r="E3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="10" t="b">
+      <c r="F3" s="42">
         <v>1</v>
       </c>
-      <c r="G3" s="10" t="b">
+      <c r="G3" s="42">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="2:7">
       <c r="B4" s="7">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C4" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>10</v>
@@ -969,19 +1035,19 @@
       <c r="E4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="10" t="b">
+      <c r="F4" s="42">
         <v>1</v>
       </c>
-      <c r="G4" s="10" t="b">
+      <c r="G4" s="42">
         <v>1</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="2:7">
       <c r="B5" s="7">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C5" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>11</v>
@@ -989,19 +1055,19 @@
       <c r="E5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="10" t="b">
+      <c r="F5" s="42">
         <v>1</v>
       </c>
-      <c r="G5" s="10" t="b">
+      <c r="G5" s="42">
         <v>1</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="2:7">
       <c r="B6" s="7">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C6" s="8">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>13</v>
@@ -1009,19 +1075,19 @@
       <c r="E6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="10" t="b">
+      <c r="F6" s="42">
         <v>1</v>
       </c>
-      <c r="G6" s="10" t="b">
+      <c r="G6" s="42">
         <v>1</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="2:7">
       <c r="B7" s="7">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C7" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>15</v>
@@ -1029,19 +1095,19 @@
       <c r="E7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="10" t="b">
+      <c r="F7" s="42">
         <v>1</v>
       </c>
-      <c r="G7" s="10" t="b">
+      <c r="G7" s="42">
         <v>1</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="2:7">
       <c r="B8" s="7">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C8" s="8">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>17</v>
@@ -1049,16 +1115,16 @@
       <c r="E8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="10" t="b">
+      <c r="F8" s="42">
         <v>1</v>
       </c>
-      <c r="G8" s="10" t="b">
+      <c r="G8" s="42">
         <v>1</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="2:7">
       <c r="B9" s="7">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -1066,9 +1132,9 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10">
+    <row r="10" spans="2:7">
       <c r="B10" s="7">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -1076,9 +1142,9 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11">
+    <row r="11" spans="2:7">
       <c r="B11" s="7">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -1086,9 +1152,9 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12">
+    <row r="12" spans="2:7">
       <c r="B12" s="7">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -1096,9 +1162,9 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13">
+    <row r="13" spans="2:7">
       <c r="B13" s="7">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -1106,9 +1172,9 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14">
+    <row r="14" spans="2:7">
       <c r="B14" s="7">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -1116,9 +1182,9 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15">
+    <row r="15" spans="2:7">
       <c r="B15" s="7">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -1126,9 +1192,9 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16">
+    <row r="16" spans="2:7">
       <c r="B16" s="7">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -1136,7 +1202,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17">
+    <row r="17" spans="2:7">
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -1144,18 +1210,18 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="21" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="22" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="23" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="24" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="25" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="26" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="27" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="28" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="29" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="30" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="31" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="32" spans="2:7" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -2125,36 +2191,66 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <conditionalFormatting sqref="F3:F8">
+    <cfRule type="iconSet" priority="3">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="1"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="iconSet" priority="2">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="1"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G8">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="1"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
+    <tabColor theme="7" tint="0.39997558519241921"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.14"/>
-    <col customWidth="1" min="2" max="2" width="6.57"/>
-    <col customWidth="1" min="3" max="3" width="10.0"/>
-    <col customWidth="1" min="4" max="4" width="101.43"/>
-    <col customWidth="1" min="5" max="5" width="38.29"/>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="101.42578125" customWidth="1"/>
+    <col min="5" max="5" width="38.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="C1" s="11" t="s">
+    <row r="1" spans="2:7">
+      <c r="C1" s="18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="D1" s="19"/>
+    </row>
+    <row r="2" spans="2:7">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2174,99 +2270,99 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="2:7">
       <c r="B3" s="7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="8"/>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="10" t="b">
+      <c r="F3" s="42">
         <v>1</v>
       </c>
-      <c r="G3" s="10" t="b">
+      <c r="G3" s="42">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="2:7">
       <c r="B4" s="7">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C4" s="8"/>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="F4" s="42">
+        <v>1</v>
+      </c>
+      <c r="G4" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
       <c r="B5" s="7">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="42">
+        <v>1</v>
+      </c>
+      <c r="G5" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="7">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="13" t="s">
+      <c r="E6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="F6" s="42">
+        <v>1</v>
+      </c>
+      <c r="G6" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="7">
-        <v>5.0</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="13" t="s">
+      <c r="E7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="F7" s="42">
+        <v>1</v>
+      </c>
+      <c r="G7" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
       <c r="B8" s="7">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -2274,9 +2370,9 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9">
+    <row r="9" spans="2:7">
       <c r="B9" s="7">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -2284,9 +2380,9 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10">
+    <row r="10" spans="2:7">
       <c r="B10" s="7">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -2294,9 +2390,9 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11">
+    <row r="11" spans="2:7">
       <c r="B11" s="7">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -2304,9 +2400,9 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12">
+    <row r="12" spans="2:7">
       <c r="B12" s="7">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -2314,9 +2410,9 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13">
+    <row r="13" spans="2:7">
       <c r="B13" s="7">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -2324,9 +2420,9 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14">
+    <row r="14" spans="2:7">
       <c r="B14" s="7">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -2334,9 +2430,9 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15">
+    <row r="15" spans="2:7">
       <c r="B15" s="7">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -2344,7 +2440,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16">
+    <row r="16" spans="2:7">
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -2356,31 +2452,56 @@
   <mergeCells count="1">
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <conditionalFormatting sqref="F3:F7">
+    <cfRule type="iconSet" priority="2">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="1"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G7">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="1"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="7.14"/>
-    <col customWidth="1" min="3" max="3" width="9.14"/>
-    <col customWidth="1" min="4" max="4" width="101.43"/>
+    <col min="2" max="2" width="7.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="101.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="C1" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="2:7">
+      <c r="C1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="19"/>
+    </row>
+    <row r="2" spans="2:7">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2400,121 +2521,121 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="2:7">
       <c r="B3" s="7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="8"/>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="42">
+        <v>-1</v>
+      </c>
+      <c r="G3" s="42">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="7">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="13" t="s">
+      <c r="E4" s="9"/>
+      <c r="F4" s="42">
+        <v>-1</v>
+      </c>
+      <c r="G4" s="42">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="7">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="7">
-        <v>3.0</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="13" t="s">
+      <c r="E5" s="9"/>
+      <c r="F5" s="42">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="42">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="7">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="13" t="s">
+      <c r="E6" s="9"/>
+      <c r="F6" s="42">
+        <v>-1</v>
+      </c>
+      <c r="G6" s="42">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="7">
-        <v>5.0</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="13" t="s">
+      <c r="E7" s="9"/>
+      <c r="F7" s="42">
+        <v>-1</v>
+      </c>
+      <c r="G7" s="42">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="7">
+        <v>7</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="7">
-        <v>7.0</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="14" t="s">
+      <c r="E8" s="8"/>
+      <c r="F8" s="42">
+        <v>-1</v>
+      </c>
+      <c r="G8" s="42">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="7">
+        <v>8</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="7">
-        <v>8.0</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="14" t="s">
-        <v>36</v>
-      </c>
       <c r="E9" s="8"/>
-      <c r="F9" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="F9" s="42">
+        <v>-1</v>
+      </c>
+      <c r="G9" s="42">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
       <c r="B10" s="7">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -2522,9 +2643,9 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11">
+    <row r="11" spans="2:7">
       <c r="B11" s="7">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -2532,9 +2653,9 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12">
+    <row r="12" spans="2:7">
       <c r="B12" s="7">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -2542,9 +2663,9 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13">
+    <row r="13" spans="2:7">
       <c r="B13" s="7">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -2552,9 +2673,9 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14">
+    <row r="14" spans="2:7">
       <c r="B14" s="7">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -2562,9 +2683,9 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15">
+    <row r="15" spans="2:7">
       <c r="B15" s="7">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -2572,7 +2693,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16">
+    <row r="16" spans="2:7">
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -2584,494 +2705,637 @@
   <mergeCells count="1">
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <conditionalFormatting sqref="F3:G3">
+    <cfRule type="iconSet" priority="3">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:G9 G4">
+    <cfRule type="iconSet" priority="2">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="20.57"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75">
+      <c r="A3" s="15"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+    </row>
+    <row r="4" spans="1:14" ht="31.5">
+      <c r="A4" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="18" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1">
+      <c r="A5" s="16"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="19"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="20" t="s">
+      <c r="B6" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="37"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="20" t="s">
+      <c r="B8" s="38"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="37"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1">
+      <c r="A10" s="16"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+    </row>
+    <row r="11" spans="1:14" ht="33.75">
+      <c r="A11" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="19"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="29" t="s">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="17"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="39"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="17"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="20"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="23"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="23"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="23"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="23"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="23"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="23"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="23"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="23"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="23"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="23"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="23"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="23"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="23"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="23"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="23"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="23"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="25"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="27"/>
+    </row>
+    <row r="33" spans="1:7" ht="33.75">
+      <c r="A33" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="30"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="31" t="s">
+      <c r="B33" s="19"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="30"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="32"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="35"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="35"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="35"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="35"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="35"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="35"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="35"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="35"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="35"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="35"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="35"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="35"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="35"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="35"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="35"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="35"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="37"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="39"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="23"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="42"/>
-      <c r="G35" s="43"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="42"/>
-      <c r="G36" s="43"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="42"/>
-      <c r="G37" s="43"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="42"/>
-      <c r="G38" s="43"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="25"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="27"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="29"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="30"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="31"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="30"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="31"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="30"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="31"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="30"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="31"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="32"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3086,308 +3350,436 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A11:G11"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
-  <sheetData/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75">
+      <c r="A3" s="15"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" spans="1:7" ht="31.5">
+      <c r="A4" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1">
+      <c r="A5" s="16"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="29"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="37"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="34"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="29"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="37"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="34"/>
+    </row>
+    <row r="10" spans="1:7" ht="23.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="1:7" ht="33.75">
+      <c r="A11" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="19"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="27"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="20" t="s">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="17"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="39"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="17"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="20"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="22"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="23"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="24"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="23"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="24"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="23"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="24"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="23"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="24"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="23"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="24"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="23"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="24"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="23"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="24"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="23"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="24"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="23"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="24"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="23"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="24"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="23"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="24"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="23"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="24"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="23"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="24"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="23"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="24"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="23"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="24"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="23"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="24"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="23"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="24"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="23"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="24"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="23"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="24"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="23"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="24"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="23"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="24"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="25"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="27"/>
+    </row>
+    <row r="38" spans="1:7" ht="33.75">
+      <c r="A38" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="19"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="23"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="27"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="19"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="30"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="30"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="32"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="34"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="35"/>
-      <c r="G16" s="36"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="35"/>
-      <c r="G17" s="36"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="35"/>
-      <c r="G18" s="36"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="35"/>
-      <c r="G19" s="36"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="35"/>
-      <c r="G20" s="36"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="35"/>
-      <c r="G21" s="36"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="35"/>
-      <c r="G22" s="36"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="35"/>
-      <c r="G23" s="36"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="35"/>
-      <c r="G24" s="36"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="35"/>
-      <c r="G25" s="36"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="35"/>
-      <c r="G26" s="36"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="35"/>
-      <c r="G27" s="36"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="35"/>
-      <c r="G28" s="36"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="35"/>
-      <c r="G29" s="36"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="35"/>
-      <c r="G30" s="36"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="35"/>
-      <c r="G31" s="36"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="35"/>
-      <c r="G32" s="36"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="35"/>
-      <c r="G33" s="36"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="35"/>
-      <c r="G34" s="36"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="35"/>
-      <c r="G35" s="36"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="35"/>
-      <c r="G36" s="36"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="37"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="39"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="23"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="42"/>
-      <c r="G40" s="43"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="42"/>
-      <c r="G41" s="43"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="42"/>
-      <c r="G42" s="43"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="42"/>
-      <c r="G43" s="43"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="25"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="27"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="29"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="30"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="31"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="30"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="31"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="30"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="31"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="30"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="31"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="32"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3402,322 +3794,467 @@
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="A15:G37"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
-  <sheetData/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="18" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75">
+      <c r="A3" s="15"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1">
+      <c r="A4" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1">
+      <c r="A5" s="16"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="36" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="19"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="20" t="s">
+      <c r="B6" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="27"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="23"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="27"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="19"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="29" t="s">
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="29"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="37"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="34"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="29"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="37"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="34"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1">
+      <c r="A10" s="16"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="1:7" ht="33.75">
+      <c r="A11" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="17"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="39"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="17"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="20"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="22"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="23"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="24"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="23"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="24"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="23"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="24"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="23"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="24"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="23"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="24"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="23"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="24"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="23"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="24"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="23"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="24"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="23"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="24"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="23"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="24"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="23"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="24"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="23"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="24"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="23"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="24"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="23"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="24"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="23"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="24"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="23"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="24"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="23"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="24"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="23"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="24"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="23"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="24"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="23"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="24"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="23"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="24"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="25"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="27"/>
+    </row>
+    <row r="38" spans="1:7" ht="33.75">
+      <c r="A38" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="19"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="41" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="30"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="30"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="32"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="34"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="35"/>
-      <c r="G16" s="36"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="35"/>
-      <c r="G17" s="36"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="35"/>
-      <c r="G18" s="36"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="35"/>
-      <c r="G19" s="36"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="35"/>
-      <c r="G20" s="36"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="35"/>
-      <c r="G21" s="36"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="35"/>
-      <c r="G22" s="36"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="35"/>
-      <c r="G23" s="36"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="35"/>
-      <c r="G24" s="36"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="35"/>
-      <c r="G25" s="36"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="35"/>
-      <c r="G26" s="36"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="35"/>
-      <c r="G27" s="36"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="35"/>
-      <c r="G28" s="36"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="35"/>
-      <c r="G29" s="36"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="35"/>
-      <c r="G30" s="36"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="35"/>
-      <c r="G31" s="36"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="35"/>
-      <c r="G32" s="36"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="35"/>
-      <c r="G33" s="36"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="35"/>
-      <c r="G34" s="36"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="35"/>
-      <c r="G35" s="36"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="35"/>
-      <c r="G36" s="36"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="37"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="39"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="23"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="42"/>
-      <c r="G40" s="43"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="42"/>
-      <c r="G41" s="43"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="42"/>
-      <c r="G42" s="43"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="42"/>
-      <c r="G43" s="43"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="25"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="27"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="29"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="30"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="31"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="30"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="31"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="30"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="31"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="30"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="31"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="32"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A39:G44"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:G7"/>
+    <mergeCell ref="A15:G37"/>
     <mergeCell ref="B8:G9"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:G44"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:G7"/>
-    <mergeCell ref="A15:G37"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>